--- a/Screening_Log.xlsx
+++ b/Screening_Log.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Screening_Log" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Screening_Log" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Screening_Date</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>22:30:39.960815</t>
+  </si>
+  <si>
+    <t>2017-10-28</t>
+  </si>
+  <si>
+    <t>13:11:23.726313</t>
+  </si>
+  <si>
+    <t>kk</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="2:3"/>
@@ -743,6 +752,41 @@
       </c>
       <c r="K8" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="1048571" s="2" spans="1:11"/>

--- a/Screening_Log.xlsx
+++ b/Screening_Log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Screening_Date</t>
   </si>
@@ -89,6 +89,33 @@
   </si>
   <si>
     <t>kk</t>
+  </si>
+  <si>
+    <t>14:08:37.368626</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>22:01:06.972138</t>
+  </si>
+  <si>
+    <t>22:03:31.099802</t>
   </si>
 </sst>
 </file>
@@ -455,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="2:3"/>
@@ -787,6 +814,111 @@
       </c>
       <c r="K9" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="1048571" s="2" spans="1:11"/>
